--- a/templates/thongketheongay.xlsx
+++ b/templates/thongketheongay.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,30 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Số công văn</t>
-  </si>
-  <si>
-    <t>Trích yếu</t>
-  </si>
-  <si>
     <t>Ngày ký</t>
   </si>
   <si>
     <t>Ngày đi/đến</t>
   </si>
   <si>
-    <t>Loại công văn</t>
-  </si>
-  <si>
     <t>Từ ngày: ………../…………../…………… Đến ngày: …………./…………/…………….</t>
   </si>
   <si>
     <t>THỐNG KÊ CÔNG VĂN THEO NGÀY</t>
+  </si>
+  <si>
+    <t>Tên tài liệu</t>
+  </si>
+  <si>
+    <t>Số nhận dạng</t>
+  </si>
+  <si>
+    <t>Cơ quan biên soạn</t>
+  </si>
+  <si>
+    <t>Người ký</t>
+  </si>
+  <si>
+    <t>Đơn vị/cá nhân nhận CV</t>
+  </si>
+  <si>
+    <t>Loại văn bản</t>
   </si>
 </sst>
 </file>
@@ -116,13 +125,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,67 +448,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+    <row r="2" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
